--- a/项目资料/泊位管理系统/测试用例内容整理.xlsx
+++ b/项目资料/泊位管理系统/测试用例内容整理.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -298,8 +298,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -462,7 +462,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -497,7 +496,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -673,21 +671,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="100.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="42.125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -698,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="47.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="36" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -720,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="24.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -731,7 +729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="35.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -742,7 +740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="32.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -753,7 +751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="24.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -764,7 +762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="37.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -775,7 +773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="33" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -786,7 +784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="33.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -797,7 +795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="30" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -808,7 +806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="36.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -819,7 +817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="38.25" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -830,7 +828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="30.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -841,22 +839,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="33" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="33.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="33.75" customHeight="1">
       <c r="A17" s="6">
         <v>42942</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="30.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -867,7 +865,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="38.25" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -878,7 +876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="39" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -889,7 +887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="41.25" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -900,12 +898,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="33.75" customHeight="1">
       <c r="A22" s="6">
         <v>42943</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="31.5" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -916,7 +914,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="36" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -927,7 +925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="34.5" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
@@ -938,7 +936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="26.25" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -949,7 +947,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="28.5" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
@@ -960,12 +958,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="33.75" customHeight="1">
       <c r="A28" s="6">
         <v>42944</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -976,7 +974,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:3" ht="30" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -985,12 +983,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -998,12 +996,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
